--- a/datasheets/regulators/regulators.xlsx
+++ b/datasheets/regulators/regulators.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\UdeS_S7_APP1\Datasheets\regulators\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0325078F-1140-41CB-AFD2-95AC4A94602E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB4A5E3A-B9AE-43DD-91F1-05CBF25F3930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{F43BF273-42C3-4980-858C-D1EA54F26CC4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="31">
   <si>
     <t>Modèle</t>
   </si>
@@ -108,6 +108,27 @@
   </si>
   <si>
     <t>PTH08T260W</t>
+  </si>
+  <si>
+    <t>PTN04050A</t>
+  </si>
+  <si>
+    <t>PTN78000A</t>
+  </si>
+  <si>
+    <t>PTN78000W</t>
+  </si>
+  <si>
+    <t>PTN78020W</t>
+  </si>
+  <si>
+    <t>PTN78060W</t>
+  </si>
+  <si>
+    <t>TPS7A33</t>
+  </si>
+  <si>
+    <t>TPS7A47</t>
   </si>
 </sst>
 </file>
@@ -459,16 +480,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D621872-DEEF-4E10-A257-E34E21B9491D}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
@@ -866,6 +888,167 @@
         <v>5.5</v>
       </c>
     </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>2.9</v>
+      </c>
+      <c r="E18">
+        <v>7</v>
+      </c>
+      <c r="F18">
+        <v>-3.3</v>
+      </c>
+      <c r="G18">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19">
+        <v>1.5</v>
+      </c>
+      <c r="D19">
+        <v>7</v>
+      </c>
+      <c r="E19">
+        <v>29</v>
+      </c>
+      <c r="F19">
+        <v>-3</v>
+      </c>
+      <c r="G19">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20">
+        <v>1.5</v>
+      </c>
+      <c r="D20">
+        <v>7</v>
+      </c>
+      <c r="E20">
+        <v>36</v>
+      </c>
+      <c r="F20">
+        <v>2.5</v>
+      </c>
+      <c r="G20">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21">
+        <v>6</v>
+      </c>
+      <c r="D21">
+        <v>7</v>
+      </c>
+      <c r="E21">
+        <v>36</v>
+      </c>
+      <c r="F21">
+        <v>2.5</v>
+      </c>
+      <c r="G21">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>7</v>
+      </c>
+      <c r="E22">
+        <v>36</v>
+      </c>
+      <c r="F22">
+        <v>2.5</v>
+      </c>
+      <c r="G22">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>-3</v>
+      </c>
+      <c r="E23">
+        <v>-36</v>
+      </c>
+      <c r="F23">
+        <v>-1.18</v>
+      </c>
+      <c r="G23">
+        <v>-33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24">
+        <v>36</v>
+      </c>
+      <c r="F24">
+        <v>1.4</v>
+      </c>
+      <c r="G24">
+        <v>20.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/datasheets/regulators/regulators.xlsx
+++ b/datasheets/regulators/regulators.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\UdeS_S7_APP1\Datasheets\regulators\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB4A5E3A-B9AE-43DD-91F1-05CBF25F3930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{752AC1DB-F446-43D5-A700-D0568E2791AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{F43BF273-42C3-4980-858C-D1EA54F26CC4}"/>
   </bookViews>
@@ -181,6 +181,22 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FB1F8D64-2306-4DCB-87EE-811A373AF5DF}" name="Table1" displayName="Table1" ref="A1:G24" totalsRowShown="0">
+  <autoFilter ref="A1:G24" xr:uid="{FB1F8D64-2306-4DCB-87EE-811A373AF5DF}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{D91BBF4C-3762-441D-8D56-C33585FD7C56}" name="Modèle"/>
+    <tableColumn id="2" xr3:uid="{35CF8048-5290-4B9A-844D-18345D515C89}" name="Type"/>
+    <tableColumn id="3" xr3:uid="{C0D712CE-0346-48C4-897A-9502B0253B45}" name="Current (A)"/>
+    <tableColumn id="4" xr3:uid="{36294AD5-E460-4D4E-B939-17404B8BF855}" name="Min Input (V)"/>
+    <tableColumn id="5" xr3:uid="{E7DCA474-CC24-4541-BF15-2E038F5B9DC3}" name="Max Input (V)"/>
+    <tableColumn id="6" xr3:uid="{3EB56E18-1892-4982-97C3-DD4F6EF871F6}" name="Min Output (V)"/>
+    <tableColumn id="7" xr3:uid="{B1A72C0A-6DC2-456C-87F5-1018D72F36F6}" name="Max Output (V)"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -483,18 +499,18 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1051,5 +1067,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/datasheets/regulators/regulators.xlsx
+++ b/datasheets/regulators/regulators.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\UdeS_S7_APP1\Datasheets\regulators\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{752AC1DB-F446-43D5-A700-D0568E2791AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61017A08-2DDF-4035-A0F1-5CE51B36308D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{F43BF273-42C3-4980-858C-D1EA54F26CC4}"/>
+    <workbookView minimized="1" xWindow="255" yWindow="150" windowWidth="25170" windowHeight="15000" xr2:uid="{F43BF273-42C3-4980-858C-D1EA54F26CC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -185,7 +185,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FB1F8D64-2306-4DCB-87EE-811A373AF5DF}" name="Table1" displayName="Table1" ref="A1:G24" totalsRowShown="0">
-  <autoFilter ref="A1:G24" xr:uid="{FB1F8D64-2306-4DCB-87EE-811A373AF5DF}"/>
+  <autoFilter ref="A1:G24" xr:uid="{FB1F8D64-2306-4DCB-87EE-811A373AF5DF}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Switching"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{D91BBF4C-3762-441D-8D56-C33585FD7C56}" name="Modèle"/>
     <tableColumn id="2" xr3:uid="{35CF8048-5290-4B9A-844D-18345D515C89}" name="Type"/>
@@ -498,8 +504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D621872-DEEF-4E10-A257-E34E21B9491D}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -536,7 +542,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -559,7 +565,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -743,7 +749,7 @@
         <v>-17</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1019,7 +1025,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -1042,7 +1048,7 @@
         <v>-33</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>30</v>
       </c>
